--- a/src/test/java/resources/UserStoriesAndTestCases.xlsx
+++ b/src/test/java/resources/UserStoriesAndTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="37680" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="15" windowWidth="13770" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="214">
   <si>
     <t>User
 Story_ID</t>
@@ -553,10 +553,6 @@
     <t>Prod environment: https://allovercommerce.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">The users should see "Sign Out" link 
-</t>
-  </si>
-  <si>
     <t>3-User enters a valid username</t>
   </si>
   <si>
@@ -587,14 +583,6 @@
     <t>saban02@azak.com</t>
   </si>
   <si>
-    <t>saban03@azak.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-The users should see "Sign In" link 
-2-The users should see "Register" link 
-3-The users https://allovercommerce.com/  page link </t>
-  </si>
-  <si>
     <t>TC_04</t>
   </si>
   <si>
@@ -604,9 +592,6 @@
     <t>Registration should not be available using username, password and accepting privacy policy but email</t>
   </si>
   <si>
-    <t>saban03</t>
-  </si>
-  <si>
     <t>4-User SKIPS the email address</t>
   </si>
   <si>
@@ -638,9 +623,6 @@
   </si>
   <si>
     <t>US_2</t>
-  </si>
-  <si>
-    <t>saban04@azak.com</t>
   </si>
   <si>
     <t xml:space="preserve">The users should see "An account is already registered with your email address." message 
@@ -650,9 +632,6 @@
     <t>4-User enters a REGISTERED email address</t>
   </si>
   <si>
-    <t>saban04</t>
-  </si>
-  <si>
     <t>3-User enters a  REGISTERED username</t>
   </si>
   <si>
@@ -666,6 +645,42 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>saban99@azak.com</t>
+  </si>
+  <si>
+    <t>saban99</t>
+  </si>
+  <si>
+    <t>saban05</t>
+  </si>
+  <si>
+    <t>saban05@azak.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The users should see "Sign Out" link on the home page
+</t>
+  </si>
+  <si>
+    <t>1-The users should still see "Register" popup window (Popup window should not disappear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The users should see "An account is already registered with your password." message 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The users should see "An account is already registered with your username." message 
+</t>
+  </si>
+  <si>
+    <t>saban99.new@azak.com</t>
+  </si>
+  <si>
+    <t>saban05.new</t>
+  </si>
+  <si>
+    <t>saban05.new@azak.com</t>
   </si>
 </sst>
 </file>
@@ -996,21 +1011,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,19 +1034,19 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1394,10 +1409,10 @@
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="26" t="s">
         <v>148</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -1406,65 +1421,65 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="26" t="s">
         <v>148</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1473,65 +1488,65 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="26" t="s">
         <v>149</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -1540,43 +1555,43 @@
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="26" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -1585,32 +1600,32 @@
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>3</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -1619,54 +1634,54 @@
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>5</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="26" t="s">
         <v>151</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -1675,87 +1690,87 @@
       <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>3</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -1764,54 +1779,54 @@
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>5</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="26" t="s">
         <v>148</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -1820,54 +1835,54 @@
       <c r="E32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>8</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="26" t="s">
         <v>153</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -1876,98 +1891,98 @@
       <c r="E36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="20"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="20"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="21"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="21"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="21">
         <v>3</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -1976,54 +1991,54 @@
       <c r="E44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>3</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D48" s="25" t="s">
@@ -2032,43 +2047,43 @@
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="20"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="20"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="20"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="20"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="21">
         <v>3</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D51" s="25" t="s">
@@ -2077,43 +2092,43 @@
       <c r="E51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="20"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="20"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="21">
         <v>3</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -2122,32 +2137,32 @@
       <c r="E54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="21"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="20"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="21">
         <v>5</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="26" t="s">
         <v>156</v>
       </c>
       <c r="D56" s="25" t="s">
@@ -2156,109 +2171,109 @@
       <c r="E56" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="20"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="20"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="20"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="20"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="20"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="20"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="20"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="20"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="20"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="21"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="21"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B65" s="21">
         <v>8</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D65" s="25" t="s">
@@ -2267,98 +2282,98 @@
       <c r="E65" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="20"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="20"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="20"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="20"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="20"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="20"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="20"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="20"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="20"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="22">
+      <c r="B73" s="21">
         <v>8</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D73" s="27" t="s">
@@ -2367,54 +2382,54 @@
       <c r="E73" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F73" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G73" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="20"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="28"/>
       <c r="E74" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="20"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="28"/>
       <c r="E75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="21"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="29"/>
       <c r="E76" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="21">
         <v>5</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="26" t="s">
         <v>149</v>
       </c>
       <c r="D77" s="25" t="s">
@@ -2423,76 +2438,76 @@
       <c r="E77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="20"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="20"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="20"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="20"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="20"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="20"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="20"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="20"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="21"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="20"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83" s="21">
         <v>5</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D83" s="27" t="s">
@@ -2501,43 +2516,43 @@
       <c r="E83" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F83" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="26" t="s">
+      <c r="G83" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="20"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
       <c r="D84" s="28"/>
       <c r="E84" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="21"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="29"/>
       <c r="E85" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86" s="21">
         <v>5</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="26" t="s">
         <v>151</v>
       </c>
       <c r="D86" s="25" t="s">
@@ -2546,87 +2561,87 @@
       <c r="E86" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="F86" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="26" t="s">
+      <c r="G86" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="20"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="20"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="20"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="20"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="20"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="20"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="20"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="20"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="20"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="20"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="21"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="21"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="19"/>
       <c r="E92" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93" s="21">
         <v>5</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="26" t="s">
         <v>153</v>
       </c>
       <c r="D93" s="25" t="s">
@@ -2635,87 +2650,87 @@
       <c r="E93" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G93" s="26" t="s">
+      <c r="G93" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="20"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="20"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="20"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="20"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="20"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="20"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="20"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="20"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="20"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="20"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="21"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="21"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="19"/>
       <c r="E99" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B100" s="21">
         <v>5</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D100" s="25" t="s">
@@ -2724,32 +2739,32 @@
       <c r="E100" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="20"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="20"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="22">
+      <c r="B102" s="21">
         <v>5</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="26" t="s">
         <v>156</v>
       </c>
       <c r="D102" s="25" t="s">
@@ -2758,53 +2773,109 @@
       <c r="E102" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="26" t="s">
+      <c r="G102" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="20"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="20"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G103"/>
   <mergeCells count="132">
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="G65:G72"/>
+    <mergeCell ref="B65:B72"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C65:C72"/>
+    <mergeCell ref="D93:D99"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="D65:D72"/>
+    <mergeCell ref="F65:F72"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F56:F64"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="G86:G92"/>
+    <mergeCell ref="F93:F99"/>
+    <mergeCell ref="G93:G99"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C99"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="A93:A99"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="A56:A64"/>
     <mergeCell ref="D56:D64"/>
@@ -2829,88 +2900,32 @@
     <mergeCell ref="F36:F43"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="F86:F92"/>
-    <mergeCell ref="G86:G92"/>
-    <mergeCell ref="F93:F99"/>
-    <mergeCell ref="G93:G99"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C93:C99"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="D65:D72"/>
-    <mergeCell ref="F65:F72"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F56:F64"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="G65:G72"/>
-    <mergeCell ref="B65:B72"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C65:C72"/>
-    <mergeCell ref="D93:D99"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2957,147 +2972,147 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>5</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="26" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -3106,55 +3121,49 @@
       <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G15"/>
   <mergeCells count="18">
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="F2:F6"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
@@ -3167,6 +3176,12 @@
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F2:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3177,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3242,7 +3257,7 @@
         <v>171</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3253,7 +3268,7 @@
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="36"/>
@@ -3266,10 +3281,10 @@
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="33"/>
@@ -3281,10 +3296,10 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="33"/>
@@ -3296,10 +3311,10 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="33"/>
@@ -3311,10 +3326,10 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="33"/>
@@ -3326,7 +3341,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="36"/>
@@ -3349,10 +3364,10 @@
         <v>169</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>166</v>
@@ -3364,7 +3379,7 @@
         <v>171</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -3375,7 +3390,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="36"/>
@@ -3388,7 +3403,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="36"/>
@@ -3401,10 +3416,10 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="33"/>
@@ -3416,10 +3431,10 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="33"/>
@@ -3431,10 +3446,10 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="33"/>
@@ -3446,7 +3461,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="36"/>
@@ -3469,10 +3484,10 @@
         <v>169</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>166</v>
@@ -3484,7 +3499,7 @@
         <v>171</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -3495,7 +3510,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="36"/>
@@ -3508,10 +3523,10 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="33"/>
@@ -3523,7 +3538,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="36"/>
@@ -3536,10 +3551,10 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="33"/>
@@ -3551,10 +3566,10 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="33"/>
@@ -3566,7 +3581,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="36"/>
@@ -3589,10 +3604,10 @@
         <v>169</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>166</v>
@@ -3604,7 +3619,7 @@
         <v>171</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
@@ -3615,7 +3630,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="36"/>
@@ -3628,10 +3643,10 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="33"/>
@@ -3643,10 +3658,10 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="33"/>
@@ -3658,7 +3673,7 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="36"/>
@@ -3671,10 +3686,10 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G31" s="36"/>
       <c r="H31" s="33"/>
@@ -3686,7 +3701,7 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="36"/>
@@ -3709,10 +3724,10 @@
         <v>169</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>166</v>
@@ -3724,7 +3739,7 @@
         <v>171</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -3735,7 +3750,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="36"/>
@@ -3748,10 +3763,10 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="33"/>
@@ -3763,10 +3778,10 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="33"/>
@@ -3778,10 +3793,10 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="33"/>
@@ -3793,10 +3808,10 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G39" s="36"/>
       <c r="H39" s="33"/>
@@ -3808,7 +3823,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="36"/>
@@ -3828,6 +3843,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="H10:H17"/>
+    <mergeCell ref="I10:I17"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="G18:G25"/>
     <mergeCell ref="H26:H33"/>
     <mergeCell ref="I26:I33"/>
     <mergeCell ref="A34:A41"/>
@@ -3842,27 +3878,6 @@
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D33"/>
     <mergeCell ref="G26:G33"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="G18:G25"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="I2:I9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="H10:H17"/>
-    <mergeCell ref="I10:I17"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="G10:G17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="allover@commerce"/>
@@ -3876,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3923,13 +3938,13 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>170</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>166</v>
@@ -3941,11 +3956,11 @@
         <v>171</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -3954,7 +3969,7 @@
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="36"/>
@@ -3967,10 +3982,10 @@
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="33"/>
@@ -3982,10 +3997,10 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="33"/>
@@ -3997,10 +4012,10 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="33"/>
@@ -4012,10 +4027,10 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="33"/>
@@ -4027,7 +4042,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="36"/>
@@ -4047,13 +4062,13 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>166</v>
@@ -4065,11 +4080,11 @@
         <v>171</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
@@ -4078,7 +4093,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="36"/>
@@ -4091,10 +4106,10 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="33"/>
@@ -4106,10 +4121,10 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="33"/>
@@ -4121,10 +4136,10 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="33"/>
@@ -4136,10 +4151,10 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="33"/>
@@ -4151,7 +4166,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="36"/>
@@ -4171,13 +4186,13 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>166</v>
@@ -4189,11 +4204,11 @@
         <v>171</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
@@ -4202,7 +4217,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="36"/>
@@ -4215,10 +4230,10 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="33"/>
@@ -4230,10 +4245,10 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="33"/>
@@ -4245,10 +4260,10 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="33"/>
@@ -4260,10 +4275,10 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="33"/>
@@ -4275,7 +4290,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="36"/>
@@ -4295,13 +4310,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="G18:G25"/>
-    <mergeCell ref="H18:H25"/>
     <mergeCell ref="I2:I9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
@@ -4316,6 +4324,13 @@
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="H2:H9"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="H18:H25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="allover@commerce"/>
